--- a/biology/Botanique/Quercus_cerris/Quercus_cerris.xlsx
+++ b/biology/Botanique/Quercus_cerris/Quercus_cerris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chêne chevelu ou Chêne lombard ou Chêne cerris (Quercus cerris), est une espèce d'arbres monoïques de la famille des Fagacées originaire du sud de l'Europe et d'Asie Mineure.
 Il est parfois appelé Chêne de Bourgogne, Chêne de Turquie ou Doucier.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1801
@@ -558,11 +572,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chêne chevelu est une espèce thermophile, présente dans le sud-est de l'Europe, dans la péninsule des Balkans jusqu'à la rive occidentale de la Mer Noire. Il est absent de la péninsule Ibérique, de Corse ou de Sardaigne.
 On le trouve jusqu'en Europe centrale, en limite de son aire de répartition, par exemple dans la réserve naturelle de Boky, près de Zvolen en Slovaquie.
-Il a été réintroduit dans les îles britanniques au XVIIIe siècle, ainsi qu'en France[1].
+Il a été réintroduit dans les îles britanniques au XVIIIe siècle, ainsi qu'en France.
 Dans le futur, son aire pourrait éventuellement se déplacer vers le nord, en raison du réchauffement climatique[réf. nécessaire].
 </t>
         </is>
@@ -592,7 +608,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne chevelu est une essence rustique de demi-ombre qui préfère les sols à pH neutre mais possède une large amplitude et tolère donc de multiples type de sols.
 </t>
@@ -623,12 +641,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chêne chevelu est largement planté en partie pour sa croissance relativement rapide et il est naturalisé dans une grande partie de l'Europe. Il est utilisé comme plante ornementale, et comme brise-vent côtier.
 Le bois présente de nombreuses caractéristiques d'autres chênes, mais il est très enclin à se fissurer et à se diviser et est donc relégué à des usages secondaires. Il est dur, mais peu dense, trop perforé, peu souple et peu résistant, sauf, peut-être, s'il se trouve en permanence sous l'eau. On l'a utilisé occasionnellement pour la fabrication des traverses de voies ferrées. C'est un bon bois de chauffage car bon combustible.
 Plusieurs cultivars ont été sélectionnés, dont 'Variegata', un cultivar bigarré, et 'Woden', avec de grandes feuilles profondément lobées.
-Un chêne chevelu a été planté le 6 janvier 2016 sur la place de la République à Paris en hommage aux victimes des attentats de Paris et Saint-Denis de 2015[2].
+Un chêne chevelu a été planté le 6 janvier 2016 sur la place de la République à Paris en hommage aux victimes des attentats de Paris et Saint-Denis de 2015.
 </t>
         </is>
       </c>
